--- a/Tableau_Des_Taches.xlsx
+++ b/Tableau_Des_Taches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Cegep\Session 5 Informatique\PE\DeGuiWii\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71AC6C6-0B1F-4DA8-8A42-47B4E3DFE990}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8A4DB9-AF3D-4DDA-9955-A2CEE2619D30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{EE72E57F-06F0-4D34-A1EE-153CBC309DE4}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="47">
   <si>
     <t>No. Tâche</t>
   </si>
@@ -232,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -375,13 +375,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -422,6 +434,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5625688F-58E9-45F0-9A36-7F0BAA0E0980}">
-  <dimension ref="C4:H25"/>
+  <dimension ref="C4:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,282 +776,281 @@
   <sheetData>
     <row r="4" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="11"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="11"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="6" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="9"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="5" t="s">
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="6" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="5" t="s">
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="6" t="s">
+      <c r="E18" s="7"/>
+      <c r="F18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="2" t="s">
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="3" t="s">
+      <c r="E19" s="9"/>
+      <c r="F19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="5" t="s">
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="6" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="5" t="s">
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="6" t="s">
+      <c r="E21" s="7"/>
+      <c r="F21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="5" t="s">
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="6" t="s">
+      <c r="E22" s="7"/>
+      <c r="F22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C23" s="2" t="s">
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="3" t="s">
+      <c r="E23" s="9"/>
+      <c r="F23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="5" t="s">
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="6" t="s">
+      <c r="E24" s="7"/>
+      <c r="F24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="13" t="s">
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="6" t="s">
+      <c r="E25" s="14"/>
+      <c r="F25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G25" s="16"/>
+      <c r="G25" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tableau_Des_Taches.xlsx
+++ b/Tableau_Des_Taches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Cegep\Session 5 Informatique\PE\DeGuiWii\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8A4DB9-AF3D-4DDA-9955-A2CEE2619D30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1369263-26E2-4D5C-BBA8-F89E091EB6DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{EE72E57F-06F0-4D34-A1EE-153CBC309DE4}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>No. Tâche</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Tâche</t>
   </si>
   <si>
-    <t>Temps</t>
-  </si>
-  <si>
     <t>Préalable</t>
   </si>
   <si>
@@ -137,15 +134,6 @@
     <t>6.0</t>
   </si>
   <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>6.2</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
     <t>7.0</t>
   </si>
   <si>
@@ -171,13 +159,22 @@
   </si>
   <si>
     <t>1.0 - 2.0 - 3.0 - 4.0 - 5.0 - 6.0</t>
+  </si>
+  <si>
+    <t>Temps (H)</t>
+  </si>
+  <si>
+    <t>Gestion des Employés</t>
+  </si>
+  <si>
+    <t>TABLEAU DES TÂCHES POUR CO-ECO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,8 +202,23 @@
       <name val="Agency FB"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Agency FB"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,8 +243,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0FD722"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -376,14 +394,118 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -392,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -412,9 +534,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -423,7 +543,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -434,7 +553,25 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,6 +580,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0FD722"/>
       <color rgb="FFEA0000"/>
       <color rgb="FFBC0000"/>
       <color rgb="FFBFB1B1"/>
@@ -760,300 +898,449 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5625688F-58E9-45F0-9A36-7F0BAA0E0980}">
-  <dimension ref="C4:G25"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="16" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="22"/>
+      <c r="B2" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="D5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="5">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5">
+        <v>20</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="5">
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="5">
         <v>8</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
+      <c r="E17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
+      <c r="D20" s="5">
+        <v>8</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F20" s="7"/>
+      <c r="G20" s="23"/>
+      <c r="I20" s="28"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="23"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="5">
+        <v>3</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="23"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="23"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="2">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="23"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="5">
+        <v>4</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="23"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
+      <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C26" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="D26" s="11">
         <v>6</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="4" t="s">
+      <c r="E26" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="15"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="25"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tableau_Des_Taches.xlsx
+++ b/Tableau_Des_Taches.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Cegep\Session 5 Informatique\PE\DeGuiWii\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1369263-26E2-4D5C-BBA8-F89E091EB6DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFFE9E9-5F05-4D04-82CA-60D8B767D395}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{EE72E57F-06F0-4D34-A1EE-153CBC309DE4}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t>No. Tâche</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Employé</t>
   </si>
   <si>
-    <t xml:space="preserve">Banque d'heure </t>
-  </si>
-  <si>
     <t>Compte de dépenses</t>
   </si>
   <si>
@@ -146,9 +143,6 @@
     <t>2.0</t>
   </si>
   <si>
-    <t>7.1</t>
-  </si>
-  <si>
     <t>7.2</t>
   </si>
   <si>
@@ -168,6 +162,36 @@
   </si>
   <si>
     <t>TABLEAU DES TÂCHES POUR CO-ECO</t>
+  </si>
+  <si>
+    <t>Calculs</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>Banque d'heure des employés</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>Heure travailler sur un projet</t>
+  </si>
+  <si>
+    <t>Dépense d'un employé</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>6.3</t>
   </si>
 </sst>
 </file>
@@ -553,15 +577,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -572,6 +587,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -898,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5625688F-58E9-45F0-9A36-7F0BAA0E0980}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,45 +937,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="22"/>
-      <c r="B2" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="23"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="23"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="23"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="13" t="s">
         <v>0</v>
       </c>
@@ -959,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>2</v>
@@ -967,10 +991,10 @@
       <c r="F5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="23"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -981,35 +1005,35 @@
         <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="23"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="5">
         <v>10</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="23"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2">
         <v>10</v>
@@ -1018,15 +1042,15 @@
         <v>4</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="23"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="5">
         <v>10</v>
@@ -1035,15 +1059,15 @@
         <v>4</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="23"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2">
         <v>20</v>
@@ -1052,12 +1076,12 @@
         <v>4</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="23"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>6</v>
@@ -1069,12 +1093,12 @@
         <v>4</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="23"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
@@ -1083,15 +1107,15 @@
         <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="23"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>9</v>
@@ -1100,15 +1124,15 @@
         <v>8</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F13" s="7"/>
-      <c r="G13" s="23"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>12</v>
@@ -1117,32 +1141,32 @@
         <v>2</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="23"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="5">
         <v>5</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7"/>
-      <c r="G15" s="23"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>10</v>
@@ -1151,15 +1175,15 @@
         <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="23"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>11</v>
@@ -1168,15 +1192,15 @@
         <v>8</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F17" s="7"/>
-      <c r="G17" s="23"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>5</v>
@@ -1185,156 +1209,207 @@
         <v>2</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F18" s="7"/>
-      <c r="G18" s="23"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F19" s="8"/>
-      <c r="G19" s="23"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="4">
         <v>6.1</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D20" s="5">
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F20" s="7"/>
-      <c r="G20" s="23"/>
-      <c r="I20" s="28"/>
+      <c r="G20" s="20"/>
+      <c r="I20" s="25"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="4">
-        <v>6.2</v>
+      <c r="A21" s="19"/>
+      <c r="B21" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="5">
+        <v>3</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="5">
         <v>2</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="23"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="4">
-        <v>6.3</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="E22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="2">
         <v>3</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="23"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="4">
-        <v>6.4</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="E23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="2">
+        <v>9</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="5">
+        <v>4</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="19"/>
+      <c r="B29" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="5">
-        <v>2</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="23"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="2">
-        <v>10</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="23"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="5">
-        <v>4</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="23"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="11">
-        <v>6</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="23"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="25"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
+      <c r="D29" s="11">
+        <v>5</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Tableau_Des_Taches.xlsx
+++ b/Tableau_Des_Taches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Cegep\Session 5 Informatique\PE\DeGuiWii\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFFE9E9-5F05-4D04-82CA-60D8B767D395}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B3EFA3-43BC-426D-AB60-3D3FDEE0E1EE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{EE72E57F-06F0-4D34-A1EE-153CBC309DE4}"/>
   </bookViews>
@@ -538,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -595,6 +595,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -925,7 +937,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,13 +991,13 @@
       <c r="B5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="29" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="15" t="s">
@@ -998,13 +1010,13 @@
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="30" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="2">
         <v>10</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="30" t="s">
         <v>38</v>
       </c>
       <c r="F6" s="3"/>
@@ -1015,13 +1027,13 @@
       <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="31" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="5">
         <v>10</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="31" t="s">
         <v>38</v>
       </c>
       <c r="F7" s="6"/>
@@ -1032,13 +1044,13 @@
       <c r="B8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="30" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="2">
         <v>10</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="30" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="3"/>
@@ -1049,13 +1061,13 @@
       <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="31" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="5">
         <v>10</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="31" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="7"/>
@@ -1066,13 +1078,13 @@
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="30" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="2">
-        <v>20</v>
-      </c>
-      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="30" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="8"/>
@@ -1083,13 +1095,13 @@
       <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="5">
-        <v>20</v>
-      </c>
-      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="7"/>
@@ -1100,13 +1112,13 @@
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="30" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2">
-        <v>15</v>
-      </c>
-      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="30" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="8"/>
@@ -1117,13 +1129,13 @@
       <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="31" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="5">
-        <v>8</v>
-      </c>
-      <c r="E13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="31" t="s">
         <v>39</v>
       </c>
       <c r="F13" s="7"/>
@@ -1134,13 +1146,13 @@
       <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="31" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="5">
-        <v>2</v>
-      </c>
-      <c r="E14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="31" t="s">
         <v>39</v>
       </c>
       <c r="F14" s="7"/>
@@ -1151,13 +1163,13 @@
       <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="31" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="5">
-        <v>5</v>
-      </c>
-      <c r="E15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="31" t="s">
         <v>39</v>
       </c>
       <c r="F15" s="7"/>
@@ -1168,13 +1180,13 @@
       <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="30" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="2">
-        <v>10</v>
-      </c>
-      <c r="E16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="30" t="s">
         <v>39</v>
       </c>
       <c r="F16" s="8"/>
@@ -1185,13 +1197,13 @@
       <c r="B17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="31" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="5">
-        <v>8</v>
-      </c>
-      <c r="E17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="31" t="s">
         <v>39</v>
       </c>
       <c r="F17" s="7"/>
@@ -1202,13 +1214,13 @@
       <c r="B18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="31" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="5">
         <v>2</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="31" t="s">
         <v>39</v>
       </c>
       <c r="F18" s="7"/>
@@ -1219,13 +1231,13 @@
       <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="30" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="2">
-        <v>13</v>
-      </c>
-      <c r="E19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>39</v>
       </c>
       <c r="F19" s="8"/>
@@ -1236,13 +1248,13 @@
       <c r="B20" s="4">
         <v>6.1</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="31" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="5">
-        <v>8</v>
-      </c>
-      <c r="E20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="31" t="s">
         <v>39</v>
       </c>
       <c r="F20" s="7"/>
@@ -1254,13 +1266,13 @@
       <c r="B21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="31" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="5">
-        <v>3</v>
-      </c>
-      <c r="E21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="31" t="s">
         <v>39</v>
       </c>
       <c r="F21" s="7"/>
@@ -1271,13 +1283,13 @@
       <c r="B22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="31" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="5">
-        <v>2</v>
-      </c>
-      <c r="E22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="31" t="s">
         <v>39</v>
       </c>
       <c r="F22" s="7"/>
@@ -1288,13 +1300,13 @@
       <c r="B23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="30" t="s">
         <v>44</v>
       </c>
       <c r="D23" s="2">
-        <v>3</v>
-      </c>
-      <c r="E23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="30" t="s">
         <v>39</v>
       </c>
       <c r="F23" s="7"/>
@@ -1305,13 +1317,13 @@
       <c r="B24" s="4">
         <v>7.1</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="31" t="s">
         <v>48</v>
       </c>
       <c r="D24" s="5">
         <v>1</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="31" t="s">
         <v>39</v>
       </c>
       <c r="F24" s="7"/>
@@ -1322,13 +1334,13 @@
       <c r="B25" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="31" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="5">
-        <v>1</v>
-      </c>
-      <c r="E25" s="5" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="31" t="s">
         <v>39</v>
       </c>
       <c r="F25" s="7"/>
@@ -1339,13 +1351,13 @@
       <c r="B26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="31" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="5">
-        <v>1</v>
-      </c>
-      <c r="E26" s="5" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="31" t="s">
         <v>39</v>
       </c>
       <c r="F26" s="7"/>
@@ -1356,13 +1368,13 @@
       <c r="B27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="30" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="2">
-        <v>9</v>
-      </c>
-      <c r="E27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="30" t="s">
         <v>40</v>
       </c>
       <c r="F27" s="9"/>
@@ -1373,13 +1385,13 @@
       <c r="B28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="5">
-        <v>4</v>
-      </c>
-      <c r="E28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="31" t="s">
         <v>40</v>
       </c>
       <c r="F28" s="7"/>
@@ -1390,13 +1402,13 @@
       <c r="B29" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="32" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="11">
-        <v>5</v>
-      </c>
-      <c r="E29" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="32" t="s">
         <v>40</v>
       </c>
       <c r="F29" s="12"/>

--- a/Tableau_Des_Taches.xlsx
+++ b/Tableau_Des_Taches.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Cegep\Session 5 Informatique\PE\DeGuiWii\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DeGuiWii\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B3EFA3-43BC-426D-AB60-3D3FDEE0E1EE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25004DAD-B35F-4A7A-9B40-F6C02C0DEFEB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{EE72E57F-06F0-4D34-A1EE-153CBC309DE4}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t xml:space="preserve">Gestion des feuilles de temps </t>
   </si>
   <si>
-    <t>Résumé des heures travailler sur un projet</t>
-  </si>
-  <si>
     <t>Employé</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>Gestion des PDF</t>
   </si>
   <si>
-    <t>Recherche Filtré</t>
-  </si>
-  <si>
     <t>Gestion des exportations Excel</t>
   </si>
   <si>
@@ -137,9 +131,6 @@
     <t>Base de données</t>
   </si>
   <si>
-    <t>Analyse et Croquis</t>
-  </si>
-  <si>
     <t>2.0</t>
   </si>
   <si>
@@ -192,6 +183,15 @@
   </si>
   <si>
     <t>6.3</t>
+  </si>
+  <si>
+    <t>Recherche Filtrée</t>
+  </si>
+  <si>
+    <t>Résumé des heures travaillées sur un projet</t>
+  </si>
+  <si>
+    <t>Analyse et croquis</t>
   </si>
 </sst>
 </file>
@@ -587,6 +587,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -595,18 +607,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -936,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5625688F-58E9-45F0-9A36-7F0BAA0E0980}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,13 +959,13 @@
     </row>
     <row r="2" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="19"/>
-      <c r="B2" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
       <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -991,13 +991,13 @@
       <c r="B5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="26" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="15" t="s">
@@ -1010,14 +1010,14 @@
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="2">
         <v>10</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>38</v>
+      <c r="E6" s="27" t="s">
+        <v>35</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="20"/>
@@ -1025,16 +1025,16 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>35</v>
+        <v>19</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>53</v>
       </c>
       <c r="D7" s="5">
         <v>10</v>
       </c>
-      <c r="E7" s="31" t="s">
-        <v>38</v>
+      <c r="E7" s="28" t="s">
+        <v>35</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="20"/>
@@ -1042,15 +1042,15 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="D8" s="2">
         <v>10</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="27" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="3"/>
@@ -1059,15 +1059,15 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>14</v>
       </c>
       <c r="D9" s="5">
         <v>10</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="28" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="7"/>
@@ -1076,15 +1076,15 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>15</v>
       </c>
       <c r="D10" s="2">
         <v>10</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="27" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="8"/>
@@ -1093,15 +1093,15 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="5">
         <v>10</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="28" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="7"/>
@@ -1110,16 +1110,16 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2">
         <v>10</v>
       </c>
-      <c r="E12" s="30" t="s">
-        <v>39</v>
+      <c r="E12" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="20"/>
@@ -1127,16 +1127,16 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="28" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="5">
         <v>6</v>
       </c>
-      <c r="E13" s="31" t="s">
-        <v>39</v>
+      <c r="E13" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="20"/>
@@ -1144,16 +1144,16 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
       </c>
-      <c r="E14" s="31" t="s">
-        <v>39</v>
+      <c r="E14" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="20"/>
@@ -1161,16 +1161,16 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>51</v>
       </c>
       <c r="D15" s="5">
         <v>3</v>
       </c>
-      <c r="E15" s="31" t="s">
-        <v>39</v>
+      <c r="E15" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="20"/>
@@ -1178,16 +1178,16 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="27" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="2">
         <v>5</v>
       </c>
-      <c r="E16" s="30" t="s">
-        <v>39</v>
+      <c r="E16" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="20"/>
@@ -1195,16 +1195,16 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="5">
         <v>3</v>
       </c>
-      <c r="E17" s="31" t="s">
-        <v>39</v>
+      <c r="E17" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="20"/>
@@ -1212,16 +1212,16 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="5">
         <v>2</v>
       </c>
-      <c r="E18" s="31" t="s">
-        <v>39</v>
+      <c r="E18" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="20"/>
@@ -1229,16 +1229,16 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="D19" s="2">
         <v>8</v>
       </c>
-      <c r="E19" s="30" t="s">
-        <v>39</v>
+      <c r="E19" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="20"/>
@@ -1248,14 +1248,14 @@
       <c r="B20" s="4">
         <v>6.1</v>
       </c>
-      <c r="C20" s="31" t="s">
-        <v>42</v>
+      <c r="C20" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="D20" s="5">
         <v>5</v>
       </c>
-      <c r="E20" s="31" t="s">
-        <v>39</v>
+      <c r="E20" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="20"/>
@@ -1264,16 +1264,16 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>14</v>
+        <v>46</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>13</v>
       </c>
       <c r="D21" s="5">
         <v>2</v>
       </c>
-      <c r="E21" s="31" t="s">
-        <v>39</v>
+      <c r="E21" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="20"/>
@@ -1281,16 +1281,16 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>19</v>
+        <v>50</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>51</v>
       </c>
       <c r="D22" s="5">
         <v>1</v>
       </c>
-      <c r="E22" s="31" t="s">
-        <v>39</v>
+      <c r="E22" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="20"/>
@@ -1298,16 +1298,16 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>44</v>
+        <v>31</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>41</v>
       </c>
       <c r="D23" s="2">
         <v>2</v>
       </c>
-      <c r="E23" s="30" t="s">
-        <v>39</v>
+      <c r="E23" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="20"/>
@@ -1317,14 +1317,14 @@
       <c r="B24" s="4">
         <v>7.1</v>
       </c>
-      <c r="C24" s="31" t="s">
-        <v>48</v>
+      <c r="C24" s="28" t="s">
+        <v>45</v>
       </c>
       <c r="D24" s="5">
         <v>1</v>
       </c>
-      <c r="E24" s="31" t="s">
-        <v>39</v>
+      <c r="E24" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="20"/>
@@ -1332,16 +1332,16 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>50</v>
+        <v>34</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>47</v>
       </c>
       <c r="D25" s="5">
         <v>0.5</v>
       </c>
-      <c r="E25" s="31" t="s">
-        <v>39</v>
+      <c r="E25" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="20"/>
@@ -1349,16 +1349,16 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>48</v>
       </c>
       <c r="D26" s="5">
         <v>0.5</v>
       </c>
-      <c r="E26" s="31" t="s">
-        <v>39</v>
+      <c r="E26" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="20"/>
@@ -1366,16 +1366,16 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>17</v>
+        <v>42</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>16</v>
       </c>
       <c r="D27" s="2">
         <v>5</v>
       </c>
-      <c r="E27" s="30" t="s">
-        <v>40</v>
+      <c r="E27" s="27" t="s">
+        <v>37</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="20"/>
@@ -1383,16 +1383,16 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>18</v>
+        <v>43</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D28" s="5">
         <v>2</v>
       </c>
-      <c r="E28" s="31" t="s">
-        <v>40</v>
+      <c r="E28" s="28" t="s">
+        <v>37</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="20"/>
@@ -1400,16 +1400,16 @@
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
       <c r="B29" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>20</v>
+        <v>44</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>18</v>
       </c>
       <c r="D29" s="11">
         <v>3</v>
       </c>
-      <c r="E29" s="32" t="s">
-        <v>40</v>
+      <c r="E29" s="29" t="s">
+        <v>37</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="20"/>
